--- a/eagle/T06_LockBox_Bom-Exl.xlsx
+++ b/eagle/T06_LockBox_Bom-Exl.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="T06_LockBox_Bom1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="223">
   <si>
     <t>Part</t>
   </si>
@@ -31,18 +32,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>DIGIKEY</t>
-  </si>
-  <si>
-    <t>MFG</t>
-  </si>
-  <si>
-    <t>PB0</t>
-  </si>
-  <si>
-    <t>PB1</t>
-  </si>
-  <si>
     <t>PB2</t>
   </si>
   <si>
@@ -362,12 +351,348 @@
   </si>
   <si>
     <t>8-Pin eithernet jack</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Extended Price</t>
+  </si>
+  <si>
+    <t>Index Quantity Part Number Manufacturer Part</t>
+  </si>
+  <si>
+    <t>Number Description Customer</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Backorder</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Extended</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 5 CP-102A-ND PJ-102A</t>
+  </si>
+  <si>
+    <t>CONN</t>
+  </si>
+  <si>
+    <t>JACK</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>2.1MM PCB</t>
+  </si>
+  <si>
+    <t>Immediate 0 1.00000 $5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 6 609-3210-ND 67996-206HLF</t>
+  </si>
+  <si>
+    <t>HEADER</t>
+  </si>
+  <si>
+    <t>6POS .100</t>
+  </si>
+  <si>
+    <t>STR 15AU</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.40000 $2.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 3 609-3391-ND 67996-408HLF</t>
+  </si>
+  <si>
+    <t>8POS .100</t>
+  </si>
+  <si>
+    <t>STR TIN</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.32000 $0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 25 2N3904FS-ND 2N3904BU</t>
+  </si>
+  <si>
+    <t>IC TRANS</t>
+  </si>
+  <si>
+    <t>NPN SS GP</t>
+  </si>
+  <si>
+    <t>200MA</t>
+  </si>
+  <si>
+    <t>TO-92</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.15760 $3.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 2 609-1046-ND 54602-908LF</t>
+  </si>
+  <si>
+    <t>MOD JACK</t>
+  </si>
+  <si>
+    <t>R/A 8P8C</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.57000 $1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 5 609-3243-ND 67997-410HLF</t>
+  </si>
+  <si>
+    <t>10POS .100</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.26000 $1.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 10 1276-1066-1-ND CL21B105KAFNNNE</t>
+  </si>
+  <si>
+    <t>CAP CER</t>
+  </si>
+  <si>
+    <t>1UF 25V</t>
+  </si>
+  <si>
+    <t>10% X7R</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.07100 $0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 10 1276-1804-1-ND CL31B106KAHNNNE</t>
+  </si>
+  <si>
+    <t>10UF 25V</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.19800 $1.98</t>
+  </si>
+  <si>
+    <t>Digi-Key - Online Order Summary https://www.digikey.com/classic/Ordering/PrintView.aspx?CS...</t>
+  </si>
+  <si>
+    <t>1 of 2 11/3/14 7:58 PM 9 10 490-1677-1-ND GRM21BR71E334KA01L</t>
+  </si>
+  <si>
+    <t>0.33UF 25V</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.21800 $2.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 25 1276-1275-1-ND CL21B105KPFNNNE</t>
+  </si>
+  <si>
+    <t>1UF 10V</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.05960 $1.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 25 1276-2934-1-ND CL21B106KPQNFNE</t>
+  </si>
+  <si>
+    <t>10UF 10V</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.13360 $3.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 10 P1.00KCCT-ND ERJ-6ENF1001V</t>
+  </si>
+  <si>
+    <t>RES 1K</t>
+  </si>
+  <si>
+    <t>OHM 1/8W</t>
+  </si>
+  <si>
+    <t>1% 0805</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.10000 $1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 20 541-33.0CCT-ND CRCW080533R0FKEA</t>
+  </si>
+  <si>
+    <t>RES 33.0</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.08900 $1.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 10 541-150CCT-ND CRCW0805150RFKEA</t>
+  </si>
+  <si>
+    <t>RES 150</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.08900 $0.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 50 541-10.0KCCT-ND CRCW080510K0FKEA</t>
+  </si>
+  <si>
+    <t>RES 10.0K</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.04820 $2.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 1 S6105-ND PPTC052LFBN-RC</t>
+  </si>
+  <si>
+    <t>FEM</t>
+  </si>
+  <si>
+    <t>10POS .1"</t>
+  </si>
+  <si>
+    <t>DL TIN</t>
+  </si>
+  <si>
+    <t>Immediate 0 0.85000 $0.85</t>
+  </si>
+  <si>
+    <t>Subtotal $31.37</t>
+  </si>
+  <si>
+    <t>Shipping Estimate</t>
+  </si>
+  <si>
+    <t>Sales Tax $0.00</t>
+  </si>
+  <si>
+    <t>Total unknown</t>
+  </si>
+  <si>
+    <t>Fields marked as unknown cannot be determined at this time.</t>
+  </si>
+  <si>
+    <t>Applicable taxes will be added to your order at submit time unless you have a tax exempt certificate on file with us.</t>
+  </si>
+  <si>
+    <t>All duties and taxes are the responsibility of the customer.</t>
+  </si>
+  <si>
+    <t>These commodities, technology or software will be exported from the United States in accordance with the Export Administration</t>
+  </si>
+  <si>
+    <t>regulation. Diversion contrary to U.S. law prohibited.</t>
+  </si>
+  <si>
+    <t>Note: If your package is of excessive weight and size, someone will contact you prior to shipping and notify you of shipping costs.</t>
+  </si>
+  <si>
+    <t>Shipping charges will be prepaid and added to your order.</t>
+  </si>
+  <si>
+    <t>Order Notes:</t>
+  </si>
+  <si>
+    <t>COMMIT LANGUAGE: ENGLISH</t>
+  </si>
+  <si>
+    <t>2 of 2 1</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>Quantity/Unit Price</t>
+  </si>
+  <si>
+    <t>10V</t>
+  </si>
+  <si>
+    <t>25V</t>
+  </si>
+  <si>
+    <t>CL31B106KAHNNNE</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>1276-1804-1-ND</t>
+  </si>
+  <si>
+    <t>CL21B105KAFNNNE</t>
+  </si>
+  <si>
+    <t>1276-1066-1-ND</t>
+  </si>
+  <si>
+    <t>GRM21BR71E334KA01L</t>
+  </si>
+  <si>
+    <t>490-1677-1-ND</t>
+  </si>
+  <si>
+    <t>CL21B106KPQNFNE</t>
+  </si>
+  <si>
+    <t>1276-2934-1-ND</t>
+  </si>
+  <si>
+    <t>CL21B105KPFNNNE</t>
+  </si>
+  <si>
+    <t>1276-1275-1-ND</t>
+  </si>
+  <si>
+    <t>CRCW080510K0FKEA</t>
+  </si>
+  <si>
+    <t>541-10.0KCCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF1001V</t>
+  </si>
+  <si>
+    <t>P1.00KCCT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -846,8 +1171,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1183,709 +1515,1585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0.218</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="V3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="W3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="V4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="T2" t="s">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="V5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="J6">
+        <v>0.1336</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="V6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="U3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I7">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="J7">
+        <v>5.96E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="V7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
+      <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" t="s">
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>4.82E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19">
+        <v>150</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L30" t="s">
+        <v>86</v>
+      </c>
+      <c r="M30" t="s">
+        <v>87</v>
+      </c>
+      <c r="N30" t="s">
+        <v>88</v>
+      </c>
+      <c r="O30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>91</v>
+      </c>
+      <c r="R30" t="s">
+        <v>92</v>
+      </c>
+      <c r="S30" t="s">
+        <v>93</v>
+      </c>
+      <c r="T30" t="s">
+        <v>86</v>
+      </c>
+      <c r="U30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" t="s">
+        <v>98</v>
+      </c>
+      <c r="X31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A139"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection sqref="A1:A139"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="53.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>150</v>
       </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" t="s">
-        <v>90</v>
-      </c>
-      <c r="K29" t="s">
-        <v>91</v>
-      </c>
-      <c r="L29" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" t="s">
-        <v>93</v>
-      </c>
-      <c r="N29" t="s">
-        <v>94</v>
-      </c>
-      <c r="O29" t="s">
-        <v>95</v>
-      </c>
-      <c r="P29" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>97</v>
-      </c>
-      <c r="R29" t="s">
-        <v>90</v>
-      </c>
-      <c r="S29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" t="s">
-        <v>102</v>
-      </c>
-      <c r="V30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" t="s">
-        <v>110</v>
-      </c>
-      <c r="G32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" t="s">
-        <v>115</v>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
